--- a/Updates/Input data/Al Matar - Digizag Data - Backend (7).xlsx
+++ b/Updates/Input data/Al Matar - Digizag Data - Backend (7).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="326">
   <si>
     <t>Date</t>
   </si>
@@ -70,28 +70,103 @@
     <t>Success</t>
   </si>
   <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>62601557</t>
+  </si>
+  <si>
+    <t>Flight</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>OneWay</t>
+  </si>
+  <si>
+    <t>Cairo - Madinah</t>
+  </si>
+  <si>
+    <t>Egypt - Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Flynas</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
     <t>iOS</t>
+  </si>
+  <si>
+    <t>17055759</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>بارك إن باي راديسون، الرياض</t>
+  </si>
+  <si>
+    <t>17054766</t>
+  </si>
+  <si>
+    <t>RR8</t>
+  </si>
+  <si>
+    <t>كمبينسكي سنترال أفينيو دبي</t>
+  </si>
+  <si>
+    <t>62589566</t>
+  </si>
+  <si>
+    <t>WAFY1</t>
+  </si>
+  <si>
+    <t>New York - Miami</t>
+  </si>
+  <si>
+    <t>United States - United States</t>
+  </si>
+  <si>
+    <t>Delta Airlines</t>
+  </si>
+  <si>
+    <t>62589741</t>
+  </si>
+  <si>
+    <t>RoundTrip</t>
+  </si>
+  <si>
+    <t>Cairo - Riyadh</t>
+  </si>
+  <si>
+    <t>Saudia</t>
+  </si>
+  <si>
+    <t>62590311</t>
+  </si>
+  <si>
+    <t>Jeddah - Dammam</t>
+  </si>
+  <si>
+    <t>Saudi Arabia - Saudi Arabia</t>
+  </si>
+  <si>
+    <t>62593181</t>
+  </si>
+  <si>
+    <t>Cairo - Jeddah</t>
   </si>
   <si>
     <t>62585044</t>
   </si>
   <si>
-    <t>Flight</t>
-  </si>
-  <si>
-    <t>RR8</t>
-  </si>
-  <si>
-    <t>RoundTrip</t>
-  </si>
-  <si>
-    <t>Al Ula - Jeddah</t>
-  </si>
-  <si>
-    <t>Saudi Arabia - Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Saudia</t>
+    <t>Jeddah - Al Ula</t>
   </si>
   <si>
     <t>62587481</t>
@@ -100,52 +175,13 @@
     <t>WFRLY</t>
   </si>
   <si>
-    <t>Dammam - Abha</t>
+    <t>Abha - Dammam</t>
   </si>
   <si>
     <t>Flyadeal</t>
   </si>
   <si>
-    <t>62589566</t>
-  </si>
-  <si>
-    <t>WAFY1</t>
-  </si>
-  <si>
-    <t>OneWay</t>
-  </si>
-  <si>
-    <t>Jeddah - New York</t>
-  </si>
-  <si>
-    <t>Saudi Arabia - United States</t>
-  </si>
-  <si>
-    <t>62589741</t>
-  </si>
-  <si>
-    <t>Riyadh - Cairo</t>
-  </si>
-  <si>
-    <t>Saudi Arabia - Egypt</t>
-  </si>
-  <si>
-    <t>62590311</t>
-  </si>
-  <si>
-    <t>Dammam - Jeddah</t>
-  </si>
-  <si>
-    <t>Confirmed</t>
-  </si>
-  <si>
     <t>17050883</t>
-  </si>
-  <si>
-    <t>Hotel</t>
-  </si>
-  <si>
-    <t>R21</t>
   </si>
   <si>
     <t>فندق نيو ليفيل - الششة</t>
@@ -160,22 +196,22 @@
     <t>أبراج مكة</t>
   </si>
   <si>
-    <t>62573785</t>
+    <t>17052556</t>
   </si>
   <si>
-    <t>Jeddah - Dammam</t>
+    <t>هيلتون جده</t>
   </si>
   <si>
-    <t>Flynas</t>
+    <t>62573785</t>
   </si>
   <si>
     <t>62575249</t>
   </si>
   <si>
-    <t>Abu Dhabi - Nairobi</t>
+    <t>Riyadh - Abu Dhabi</t>
   </si>
   <si>
-    <t>United Arab Emirates - Kenya</t>
+    <t>Saudi Arabia - United Arab Emirates</t>
   </si>
   <si>
     <t>Etihad Airways</t>
@@ -206,6 +242,9 @@
   </si>
   <si>
     <t>Nejran - Cairo</t>
+  </si>
+  <si>
+    <t>Saudi Arabia - Egypt</t>
   </si>
   <si>
     <t>Nile Air</t>
@@ -244,19 +283,40 @@
     <t>DoubleTree by Hilton Hotel London - Hyde Park</t>
   </si>
   <si>
+    <t>62563186</t>
+  </si>
+  <si>
+    <t>Nejran - Riyadh</t>
+  </si>
+  <si>
+    <t>62564527</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>Cairo - Tabuk</t>
+  </si>
+  <si>
+    <t>Air Arabia Egypt</t>
+  </si>
+  <si>
+    <t>62564917</t>
+  </si>
+  <si>
+    <t>Jazan - Dammam</t>
+  </si>
+  <si>
     <t>62553690</t>
   </si>
   <si>
     <t>Gassim - Jeddah</t>
   </si>
   <si>
-    <t>Android</t>
-  </si>
-  <si>
     <t>62553847</t>
   </si>
   <si>
-    <t>R25</t>
+    <t>Riyadh - Cairo</t>
   </si>
   <si>
     <t>Nesma Airlines</t>
@@ -269,6 +329,9 @@
   </si>
   <si>
     <t>62556700</t>
+  </si>
+  <si>
+    <t>Dammam - Jeddah</t>
   </si>
   <si>
     <t>62557558</t>
@@ -298,52 +361,22 @@
     <t>62561990</t>
   </si>
   <si>
+    <t>Riyadh - Dubai</t>
+  </si>
+  <si>
     <t>62562114</t>
   </si>
   <si>
     <t>Alexandria - Riyadh</t>
   </si>
   <si>
-    <t>Egypt - Saudi Arabia</t>
-  </si>
-  <si>
-    <t>62563186</t>
-  </si>
-  <si>
-    <t>Nejran - Riyadh</t>
-  </si>
-  <si>
-    <t>62564527</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>Cairo - Tabuk</t>
-  </si>
-  <si>
-    <t>Air Arabia Egypt</t>
-  </si>
-  <si>
-    <t>62564917</t>
-  </si>
-  <si>
-    <t>Jazan - Dammam</t>
-  </si>
-  <si>
-    <t>62534079</t>
-  </si>
-  <si>
-    <t>Cairo - Riyadh</t>
-  </si>
-  <si>
     <t>62543320</t>
   </si>
   <si>
-    <t>Riyadh - Abu Dhabi</t>
+    <t>Abu Dhabi - Casablanca</t>
   </si>
   <si>
-    <t>Saudi Arabia - United Arab Emirates</t>
+    <t>United Arab Emirates - Morocco</t>
   </si>
   <si>
     <t>62546794</t>
@@ -361,7 +394,7 @@
     <t>R24</t>
   </si>
   <si>
-    <t>Riyadh - Arar</t>
+    <t>62534079</t>
   </si>
   <si>
     <t>17034760</t>
@@ -418,6 +451,12 @@
     <t>نوفوتيل مكة ذاخر سيتي</t>
   </si>
   <si>
+    <t>17021877</t>
+  </si>
+  <si>
+    <t>The Carlton Moscow</t>
+  </si>
+  <si>
     <t>62499069</t>
   </si>
   <si>
@@ -446,12 +485,6 @@
   </si>
   <si>
     <t>Azerbaijan - Saudi Arabia</t>
-  </si>
-  <si>
-    <t>17021877</t>
-  </si>
-  <si>
-    <t>The Carlton Moscow</t>
   </si>
   <si>
     <t>17012771</t>
@@ -511,6 +544,9 @@
     <t>فندق إس بلازا سويتس هوتل</t>
   </si>
   <si>
+    <t>16962872</t>
+  </si>
+  <si>
     <t>62350402</t>
   </si>
   <si>
@@ -529,13 +565,22 @@
     <t>Air Cairo</t>
   </si>
   <si>
-    <t>16962872</t>
-  </si>
-  <si>
     <t>62332475</t>
   </si>
   <si>
     <t>Madinah - Jeddah</t>
+  </si>
+  <si>
+    <t>16943510</t>
+  </si>
+  <si>
+    <t>Luxurious St Regis 1 Bed Palm View</t>
+  </si>
+  <si>
+    <t>16942628</t>
+  </si>
+  <si>
+    <t>Al Alamein Hotel</t>
   </si>
   <si>
     <t>62317802</t>
@@ -550,28 +595,16 @@
     <t>62322124</t>
   </si>
   <si>
-    <t>16943510</t>
+    <t>Cancelled</t>
   </si>
   <si>
-    <t>Luxurious St Regis 1 Bed Palm View</t>
-  </si>
-  <si>
-    <t>16942628</t>
-  </si>
-  <si>
-    <t>Al Alamein Hotel</t>
+    <t>16936027</t>
   </si>
   <si>
     <t>62298159</t>
   </si>
   <si>
-    <t>Tabuk - Riyadh</t>
-  </si>
-  <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
-    <t>16936027</t>
+    <t>Riyadh - Madinah</t>
   </si>
   <si>
     <t>62290350</t>
@@ -614,6 +647,9 @@
   </si>
   <si>
     <t>62234368</t>
+  </si>
+  <si>
+    <t>Riyadh - Nejran</t>
   </si>
   <si>
     <t>62237699</t>
@@ -670,13 +706,16 @@
     <t>62173137</t>
   </si>
   <si>
-    <t>Abha - Riyadh</t>
+    <t>Riyadh - Abha</t>
   </si>
   <si>
     <t>16881350</t>
   </si>
   <si>
     <t>ibis Styles Manama Diplomatic Area</t>
+  </si>
+  <si>
+    <t>62138795</t>
   </si>
   <si>
     <t>16873410</t>
@@ -694,9 +733,6 @@
     <t>بيسونا ألام ريزورت آند سبا</t>
   </si>
   <si>
-    <t>62138795</t>
-  </si>
-  <si>
     <t>16871720</t>
   </si>
   <si>
@@ -704,18 +740,6 @@
   </si>
   <si>
     <t>62113964</t>
-  </si>
-  <si>
-    <t>16860129</t>
-  </si>
-  <si>
-    <t>Kimpton Maa-Lai Bangkok by IHG</t>
-  </si>
-  <si>
-    <t>16860037</t>
-  </si>
-  <si>
-    <t>Mondrian Hong Kong</t>
   </si>
   <si>
     <t>62095472</t>
@@ -733,10 +757,16 @@
     <t>Qatar Airways</t>
   </si>
   <si>
-    <t>16854165</t>
+    <t>16860129</t>
   </si>
   <si>
-    <t>ثري أبلز سويتس آند هوتل</t>
+    <t>Kimpton Maa-Lai Bangkok by IHG</t>
+  </si>
+  <si>
+    <t>16860037</t>
+  </si>
+  <si>
+    <t>Mondrian Hong Kong</t>
   </si>
   <si>
     <t>62073869</t>
@@ -757,6 +787,21 @@
     <t>62078775</t>
   </si>
   <si>
+    <t>16854165</t>
+  </si>
+  <si>
+    <t>ثري أبلز سويتس آند هوتل</t>
+  </si>
+  <si>
+    <t>62067300</t>
+  </si>
+  <si>
+    <t>Skaka - Riyadh</t>
+  </si>
+  <si>
+    <t>62067421</t>
+  </si>
+  <si>
     <t>16851209</t>
   </si>
   <si>
@@ -766,13 +811,19 @@
     <t>ذا ماربل آرش هوتل، باي ثيسل</t>
   </si>
   <si>
-    <t>62067300</t>
+    <t>62050040</t>
   </si>
   <si>
-    <t>Skaka - Riyadh</t>
+    <t>Manila - Riyadh</t>
   </si>
   <si>
-    <t>62067421</t>
+    <t>Philippines - Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Philippine Airlines</t>
+  </si>
+  <si>
+    <t>62040193</t>
   </si>
   <si>
     <t>16841919</t>
@@ -799,19 +850,10 @@
     <t>كورت يارد من ماريوت مكة</t>
   </si>
   <si>
-    <t>62040193</t>
+    <t>62032292</t>
   </si>
   <si>
-    <t>62050040</t>
-  </si>
-  <si>
-    <t>Manila - Riyadh</t>
-  </si>
-  <si>
-    <t>Philippines - Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Philippine Airlines</t>
+    <t>62038191</t>
   </si>
   <si>
     <t>16840452</t>
@@ -830,15 +872,6 @@
   </si>
   <si>
     <t>فندق سوفيتيل كايرو داون تاون النيل</t>
-  </si>
-  <si>
-    <t>62032292</t>
-  </si>
-  <si>
-    <t>62038191</t>
-  </si>
-  <si>
-    <t>Riyadh - Abha</t>
   </si>
   <si>
     <t>16834537</t>
@@ -899,6 +932,9 @@
   </si>
   <si>
     <t>R20</t>
+  </si>
+  <si>
+    <t>Tabuk - Riyadh</t>
   </si>
   <si>
     <t>16826710</t>
@@ -1413,7 +1449,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3">
-        <v>45935.0</v>
+        <v>45936.0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
@@ -1453,7 +1489,7 @@
         <v>1.0</v>
       </c>
       <c r="Q2" s="8">
-        <v>883.0</v>
+        <v>426.0</v>
       </c>
       <c r="R2" s="8">
         <v>1.0</v>
@@ -1469,7 +1505,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3">
-        <v>45935.0</v>
+        <v>45936.0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -1477,39 +1513,39 @@
       <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J3" s="4"/>
       <c r="K3" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="7"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="P3" s="8">
         <v>1.0</v>
       </c>
       <c r="Q3" s="8">
-        <v>321.0</v>
+        <v>1937.52</v>
       </c>
       <c r="R3" s="8">
         <v>1.0</v>
@@ -1525,7 +1561,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>45935.0</v>
+        <v>45936.0</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
@@ -1533,42 +1569,42 @@
       <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
       <c r="P4" s="8">
         <v>1.0</v>
       </c>
       <c r="Q4" s="8">
-        <v>4454.0</v>
+        <v>0.78</v>
       </c>
       <c r="R4" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
@@ -1591,7 +1627,7 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>36</v>
@@ -1601,30 +1637,30 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="7"/>
       <c r="P5" s="8">
         <v>1.0</v>
       </c>
       <c r="Q5" s="8">
-        <v>1128.0</v>
+        <v>4454.0</v>
       </c>
       <c r="R5" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
@@ -1647,40 +1683,40 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="7"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="8">
         <v>1.0</v>
       </c>
       <c r="Q6" s="8">
-        <v>1026.0</v>
+        <v>1128.0</v>
       </c>
       <c r="R6" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
@@ -1701,39 +1737,39 @@
       <c r="C7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="K7" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="N7" s="4"/>
-      <c r="O7" s="7" t="s">
-        <v>45</v>
-      </c>
+      <c r="O7" s="7"/>
       <c r="P7" s="8">
         <v>1.0</v>
       </c>
       <c r="Q7" s="8">
-        <v>74.07</v>
+        <v>1026.0</v>
       </c>
       <c r="R7" s="8">
         <v>2.0</v>
@@ -1757,44 +1793,42 @@
       <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K8" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="7"/>
       <c r="P8" s="8">
         <v>1.0</v>
       </c>
       <c r="Q8" s="8">
-        <v>2350.5</v>
+        <v>1038.0</v>
       </c>
       <c r="R8" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
@@ -1807,7 +1841,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3">
-        <v>45934.0</v>
+        <v>45935.0</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>1</v>
@@ -1817,37 +1851,37 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
       <c r="P9" s="8">
         <v>1.0</v>
       </c>
       <c r="Q9" s="8">
-        <v>339.0</v>
+        <v>883.0</v>
       </c>
       <c r="R9" s="8">
         <v>1.0</v>
@@ -1863,7 +1897,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3">
-        <v>45934.0</v>
+        <v>45935.0</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>1</v>
@@ -1873,7 +1907,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>52</v>
@@ -1883,27 +1917,27 @@
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
       <c r="P10" s="8">
         <v>1.0</v>
       </c>
       <c r="Q10" s="8">
-        <v>736.0</v>
+        <v>321.0</v>
       </c>
       <c r="R10" s="8">
         <v>1.0</v>
@@ -1919,7 +1953,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3">
-        <v>45934.0</v>
+        <v>45935.0</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>1</v>
@@ -1927,42 +1961,42 @@
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E11" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J11" s="4"/>
       <c r="K11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
       <c r="P11" s="8">
         <v>1.0</v>
       </c>
       <c r="Q11" s="8">
-        <v>956.0</v>
+        <v>74.07</v>
       </c>
       <c r="R11" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -1975,7 +2009,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3">
-        <v>45934.0</v>
+        <v>45935.0</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>1</v>
@@ -1983,42 +2017,44 @@
       <c r="C12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E12" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="N12" s="6"/>
-      <c r="O12" s="7"/>
       <c r="P12" s="8">
         <v>1.0</v>
       </c>
       <c r="Q12" s="8">
-        <v>7239.0</v>
+        <v>2350.5</v>
       </c>
       <c r="R12" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
@@ -2031,7 +2067,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3">
-        <v>45934.0</v>
+        <v>45935.0</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>1</v>
@@ -2039,42 +2075,42 @@
       <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E13" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>65</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="7"/>
+      <c r="O13" s="7" t="s">
+        <v>62</v>
+      </c>
       <c r="P13" s="8">
         <v>1.0</v>
       </c>
       <c r="Q13" s="8">
-        <v>553.0</v>
+        <v>2189.44</v>
       </c>
       <c r="R13" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
@@ -2095,42 +2131,42 @@
       <c r="C14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K14" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="7" t="s">
-        <v>67</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="6"/>
+      <c r="O14" s="7"/>
       <c r="P14" s="8">
         <v>1.0</v>
       </c>
       <c r="Q14" s="8">
-        <v>83.9</v>
+        <v>339.0</v>
       </c>
       <c r="R14" s="8">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
@@ -2151,42 +2187,42 @@
       <c r="C15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K15" s="4" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="4"/>
+        <v>66</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="N15" s="6"/>
-      <c r="O15" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="O15" s="7"/>
       <c r="P15" s="8">
         <v>1.0</v>
       </c>
       <c r="Q15" s="8">
-        <v>1501.14</v>
+        <v>736.0</v>
       </c>
       <c r="R15" s="8">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
@@ -2207,39 +2243,39 @@
       <c r="C16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J16" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="K16" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M16" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="7" t="s">
-        <v>72</v>
-      </c>
+      <c r="O16" s="4"/>
       <c r="P16" s="8">
         <v>1.0</v>
       </c>
       <c r="Q16" s="8">
-        <v>292.23</v>
+        <v>956.0</v>
       </c>
       <c r="R16" s="8">
         <v>1.0</v>
@@ -2263,42 +2299,42 @@
       <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J17" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="K17" s="4" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
       <c r="P17" s="8">
         <v>1.0</v>
       </c>
       <c r="Q17" s="8">
-        <v>7758.34</v>
+        <v>7239.0</v>
       </c>
       <c r="R17" s="8">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
@@ -2319,42 +2355,42 @@
       <c r="C18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>75</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K18" s="4" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="N18" s="6"/>
-      <c r="O18" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="O18" s="7"/>
       <c r="P18" s="8">
         <v>1.0</v>
       </c>
       <c r="Q18" s="8">
-        <v>4238.36</v>
+        <v>553.0</v>
       </c>
       <c r="R18" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
@@ -2367,7 +2403,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3">
-        <v>45933.0</v>
+        <v>45934.0</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>1</v>
@@ -2375,42 +2411,42 @@
       <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E19" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J19" s="4"/>
       <c r="K19" s="4" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
+      <c r="O19" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="P19" s="8">
         <v>1.0</v>
       </c>
       <c r="Q19" s="8">
-        <v>349.0</v>
+        <v>83.9</v>
       </c>
       <c r="R19" s="8">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
@@ -2423,7 +2459,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3">
-        <v>45933.0</v>
+        <v>45934.0</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>1</v>
@@ -2431,42 +2467,42 @@
       <c r="C20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E20" s="4" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J20" s="4"/>
       <c r="K20" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="4"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="7"/>
       <c r="P20" s="8">
         <v>1.0</v>
       </c>
       <c r="Q20" s="8">
-        <v>315.0</v>
+        <v>1501.14</v>
       </c>
       <c r="R20" s="8">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
@@ -2479,7 +2515,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3">
-        <v>45933.0</v>
+        <v>45934.0</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>1</v>
@@ -2487,39 +2523,39 @@
       <c r="C21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E21" s="4" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J21" s="4"/>
       <c r="K21" s="4" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" s="6"/>
-      <c r="O21" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="P21" s="8">
         <v>1.0</v>
       </c>
       <c r="Q21" s="8">
-        <v>3335.0</v>
+        <v>292.23</v>
       </c>
       <c r="R21" s="8">
         <v>1.0</v>
@@ -2535,7 +2571,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3">
-        <v>45933.0</v>
+        <v>45934.0</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>1</v>
@@ -2543,42 +2579,42 @@
       <c r="C22" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E22" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J22" s="4"/>
       <c r="K22" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M22" s="4"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="7"/>
+      <c r="O22" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="P22" s="8">
         <v>1.0</v>
       </c>
       <c r="Q22" s="8">
-        <v>222.0</v>
+        <v>7758.34</v>
       </c>
       <c r="R22" s="8">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
@@ -2591,7 +2627,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3">
-        <v>45933.0</v>
+        <v>45934.0</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>1</v>
@@ -2599,42 +2635,42 @@
       <c r="C23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E23" s="4" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J23" s="4"/>
       <c r="K23" s="4" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M23" s="4"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="7"/>
+      <c r="O23" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="P23" s="8">
         <v>1.0</v>
       </c>
       <c r="Q23" s="8">
-        <v>383.0</v>
+        <v>4238.36</v>
       </c>
       <c r="R23" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
@@ -2657,40 +2693,40 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="4" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="7"/>
       <c r="P24" s="8">
         <v>1.0</v>
       </c>
       <c r="Q24" s="8">
-        <v>2108.0</v>
+        <v>972.0</v>
       </c>
       <c r="R24" s="8">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
@@ -2713,37 +2749,37 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="7"/>
+        <v>95</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
       <c r="P25" s="8">
         <v>1.0</v>
       </c>
       <c r="Q25" s="8">
-        <v>3215.0</v>
+        <v>501.0</v>
       </c>
       <c r="R25" s="8">
         <v>1.0</v>
@@ -2769,37 +2805,37 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N26" s="6"/>
-      <c r="O26" s="4"/>
+      <c r="O26" s="6"/>
       <c r="P26" s="8">
         <v>1.0</v>
       </c>
       <c r="Q26" s="8">
-        <v>956.0</v>
+        <v>395.0</v>
       </c>
       <c r="R26" s="8">
         <v>1.0</v>
@@ -2825,37 +2861,37 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="4" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="N27" s="4"/>
       <c r="O27" s="7"/>
       <c r="P27" s="8">
         <v>1.0</v>
       </c>
       <c r="Q27" s="8">
-        <v>533.0</v>
+        <v>349.0</v>
       </c>
       <c r="R27" s="8">
         <v>1.0</v>
@@ -2884,26 +2920,26 @@
         <v>19</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="7"/>
@@ -2911,7 +2947,7 @@
         <v>1.0</v>
       </c>
       <c r="Q28" s="8">
-        <v>972.0</v>
+        <v>315.0</v>
       </c>
       <c r="R28" s="8">
         <v>1.0</v>
@@ -2937,37 +2973,37 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="4" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="N29" s="4"/>
-      <c r="O29" s="7"/>
+      <c r="O29" s="4"/>
       <c r="P29" s="8">
         <v>1.0</v>
       </c>
       <c r="Q29" s="8">
-        <v>501.0</v>
+        <v>3335.0</v>
       </c>
       <c r="R29" s="8">
         <v>1.0</v>
@@ -2993,37 +3029,37 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="7"/>
       <c r="P30" s="8">
         <v>1.0</v>
       </c>
       <c r="Q30" s="8">
-        <v>395.0</v>
+        <v>222.0</v>
       </c>
       <c r="R30" s="8">
         <v>1.0</v>
@@ -3039,7 +3075,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3">
-        <v>45932.0</v>
+        <v>45933.0</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>1</v>
@@ -3049,37 +3085,37 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="4" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N31" s="6"/>
-      <c r="O31" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="7"/>
       <c r="P31" s="8">
         <v>1.0</v>
       </c>
       <c r="Q31" s="8">
-        <v>674.0</v>
+        <v>383.0</v>
       </c>
       <c r="R31" s="8">
         <v>1.0</v>
@@ -3095,7 +3131,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3">
-        <v>45932.0</v>
+        <v>45933.0</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>1</v>
@@ -3105,40 +3141,40 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N32" s="4"/>
-      <c r="O32" s="7"/>
+      <c r="O32" s="4"/>
       <c r="P32" s="8">
         <v>1.0</v>
       </c>
       <c r="Q32" s="8">
-        <v>1016.0</v>
+        <v>2108.0</v>
       </c>
       <c r="R32" s="8">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
@@ -3151,7 +3187,7 @@
     </row>
     <row r="33">
       <c r="A33" s="3">
-        <v>45932.0</v>
+        <v>45933.0</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>1</v>
@@ -3161,37 +3197,37 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" s="4" t="s">
+      <c r="L33" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="L33" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="M33" s="4" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="N33" s="4"/>
-      <c r="O33" s="7"/>
+      <c r="O33" s="4"/>
       <c r="P33" s="8">
         <v>1.0</v>
       </c>
       <c r="Q33" s="8">
-        <v>337.0</v>
+        <v>3215.0</v>
       </c>
       <c r="R33" s="8">
         <v>1.0</v>
@@ -3207,7 +3243,7 @@
     </row>
     <row r="34">
       <c r="A34" s="3">
-        <v>45932.0</v>
+        <v>45933.0</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>1</v>
@@ -3217,40 +3253,40 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="4" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>116</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" s="4"/>
-      <c r="O34" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="N34" s="6"/>
+      <c r="O34" s="4"/>
       <c r="P34" s="8">
         <v>1.0</v>
       </c>
       <c r="Q34" s="8">
-        <v>1505.0</v>
+        <v>956.0</v>
       </c>
       <c r="R34" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S34" s="6"/>
       <c r="T34" s="6"/>
@@ -3263,7 +3299,7 @@
     </row>
     <row r="35">
       <c r="A35" s="3">
-        <v>45932.0</v>
+        <v>45933.0</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>1</v>
@@ -3271,42 +3307,42 @@
       <c r="C35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F35" s="5" t="s">
         <v>117</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="4"/>
+      <c r="J35" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K35" s="4" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M35" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="N35" s="4"/>
-      <c r="O35" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="O35" s="7"/>
       <c r="P35" s="8">
         <v>1.0</v>
       </c>
       <c r="Q35" s="8">
-        <v>1499.12</v>
+        <v>533.0</v>
       </c>
       <c r="R35" s="8">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="S35" s="6"/>
       <c r="T35" s="6"/>
@@ -3327,39 +3363,39 @@
       <c r="C36" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D36" s="4"/>
       <c r="E36" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H36" s="6"/>
       <c r="I36" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J36" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K36" s="4" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="7" t="s">
-        <v>119</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N36" s="6"/>
+      <c r="O36" s="7"/>
       <c r="P36" s="8">
         <v>1.0</v>
       </c>
       <c r="Q36" s="8">
-        <v>369.33</v>
+        <v>1016.0</v>
       </c>
       <c r="R36" s="8">
         <v>1.0</v>
@@ -3383,42 +3419,42 @@
       <c r="C37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J37" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K37" s="4" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M37" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="N37" s="6"/>
-      <c r="O37" s="7" t="s">
-        <v>121</v>
-      </c>
+      <c r="O37" s="4"/>
       <c r="P37" s="8">
         <v>1.0</v>
       </c>
       <c r="Q37" s="8">
-        <v>319.12</v>
+        <v>337.0</v>
       </c>
       <c r="R37" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S37" s="6"/>
       <c r="T37" s="6"/>
@@ -3439,39 +3475,39 @@
       <c r="C38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D38" s="4"/>
       <c r="E38" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H38" s="6"/>
       <c r="I38" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J38" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K38" s="4" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M38" s="4"/>
+        <v>70</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="N38" s="6"/>
-      <c r="O38" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="O38" s="4"/>
       <c r="P38" s="8">
         <v>1.0</v>
       </c>
       <c r="Q38" s="8">
-        <v>219.49</v>
+        <v>1505.0</v>
       </c>
       <c r="R38" s="8">
         <v>2.0</v>
@@ -3495,44 +3531,42 @@
       <c r="C39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D39" s="4"/>
       <c r="E39" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="4"/>
+      <c r="J39" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K39" s="4" t="s">
         <v>43</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>126</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39" s="6"/>
+      <c r="O39" s="4"/>
       <c r="P39" s="8">
         <v>1.0</v>
       </c>
       <c r="Q39" s="8">
-        <v>10671.82</v>
+        <v>674.0</v>
       </c>
       <c r="R39" s="8">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="S39" s="6"/>
       <c r="T39" s="6"/>
@@ -3545,7 +3579,7 @@
     </row>
     <row r="40">
       <c r="A40" s="3">
-        <v>45931.0</v>
+        <v>45932.0</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>1</v>
@@ -3554,38 +3588,38 @@
         <v>18</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H40" s="6"/>
       <c r="I40" s="4" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="J40" s="4"/>
       <c r="K40" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M40" s="4"/>
       <c r="N40" s="6"/>
       <c r="O40" s="7" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="P40" s="8">
         <v>1.0</v>
       </c>
       <c r="Q40" s="8">
-        <v>3946.45</v>
+        <v>1499.12</v>
       </c>
       <c r="R40" s="8">
         <v>3.0</v>
@@ -3601,7 +3635,7 @@
     </row>
     <row r="41">
       <c r="A41" s="3">
-        <v>45931.0</v>
+        <v>45932.0</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>1</v>
@@ -3610,40 +3644,38 @@
         <v>18</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>129</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="4" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M41" s="4"/>
-      <c r="N41" s="4" t="s">
+      <c r="N41" s="6"/>
+      <c r="O41" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="P41" s="8">
         <v>1.0</v>
       </c>
       <c r="Q41" s="8">
-        <v>329.8</v>
+        <v>369.33</v>
       </c>
       <c r="R41" s="8">
         <v>1.0</v>
@@ -3659,7 +3691,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3">
-        <v>45931.0</v>
+        <v>45932.0</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>1</v>
@@ -3668,41 +3700,41 @@
         <v>18</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>131</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H42" s="6"/>
       <c r="I42" s="4" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="6"/>
       <c r="O42" s="7" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="P42" s="8">
         <v>1.0</v>
       </c>
       <c r="Q42" s="8">
-        <v>493.7</v>
+        <v>319.12</v>
       </c>
       <c r="R42" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S42" s="6"/>
       <c r="T42" s="6"/>
@@ -3715,7 +3747,7 @@
     </row>
     <row r="43">
       <c r="A43" s="3">
-        <v>45931.0</v>
+        <v>45932.0</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>1</v>
@@ -3724,41 +3756,41 @@
         <v>18</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="4" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="7" t="s">
+      <c r="N43" s="6"/>
+      <c r="O43" s="4" t="s">
         <v>134</v>
       </c>
       <c r="P43" s="8">
         <v>1.0</v>
       </c>
       <c r="Q43" s="8">
-        <v>262.88</v>
+        <v>219.49</v>
       </c>
       <c r="R43" s="8">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="S43" s="6"/>
       <c r="T43" s="6"/>
@@ -3771,7 +3803,7 @@
     </row>
     <row r="44">
       <c r="A44" s="3">
-        <v>45930.0</v>
+        <v>45932.0</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>1</v>
@@ -3779,42 +3811,44 @@
       <c r="C44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E44" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>135</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J44" s="4"/>
       <c r="K44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="O44" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="M44" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="N44" s="4"/>
-      <c r="O44" s="7"/>
       <c r="P44" s="8">
         <v>1.0</v>
       </c>
       <c r="Q44" s="8">
-        <v>694.0</v>
+        <v>10671.82</v>
       </c>
       <c r="R44" s="8">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
@@ -3827,7 +3861,7 @@
     </row>
     <row r="45">
       <c r="A45" s="3">
-        <v>45930.0</v>
+        <v>45931.0</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>1</v>
@@ -3835,42 +3869,42 @@
       <c r="C45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E45" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J45" s="4"/>
       <c r="K45" s="4" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M45" s="4"/>
       <c r="N45" s="4"/>
-      <c r="O45" s="7"/>
+      <c r="O45" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="P45" s="8">
         <v>1.0</v>
       </c>
       <c r="Q45" s="8">
-        <v>303.0</v>
+        <v>3946.45</v>
       </c>
       <c r="R45" s="8">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
@@ -3883,7 +3917,7 @@
     </row>
     <row r="46">
       <c r="A46" s="3">
-        <v>45930.0</v>
+        <v>45931.0</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>1</v>
@@ -3891,39 +3925,41 @@
       <c r="C46" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E46" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H46" s="6"/>
       <c r="I46" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J46" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J46" s="4"/>
       <c r="K46" s="4" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="M46" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N46" s="4"/>
-      <c r="O46" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="P46" s="8">
         <v>1.0</v>
       </c>
       <c r="Q46" s="8">
-        <v>740.0</v>
+        <v>329.8</v>
       </c>
       <c r="R46" s="8">
         <v>1.0</v>
@@ -3939,7 +3975,7 @@
     </row>
     <row r="47">
       <c r="A47" s="3">
-        <v>45930.0</v>
+        <v>45931.0</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>1</v>
@@ -3948,41 +3984,41 @@
         <v>18</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="4" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="J47" s="4"/>
       <c r="K47" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
-      <c r="O47" s="4" t="s">
-        <v>146</v>
+      <c r="O47" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="P47" s="8">
         <v>1.0</v>
       </c>
       <c r="Q47" s="8">
-        <v>15423.83</v>
+        <v>493.7</v>
       </c>
       <c r="R47" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
@@ -3995,7 +4031,7 @@
     </row>
     <row r="48">
       <c r="A48" s="3">
-        <v>45929.0</v>
+        <v>45931.0</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>1</v>
@@ -4004,41 +4040,41 @@
         <v>18</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="4" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="J48" s="4"/>
       <c r="K48" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
+      <c r="N48" s="6"/>
       <c r="O48" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P48" s="8">
         <v>1.0</v>
       </c>
       <c r="Q48" s="8">
-        <v>2650.7</v>
+        <v>262.88</v>
       </c>
       <c r="R48" s="8">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
@@ -4051,7 +4087,7 @@
     </row>
     <row r="49">
       <c r="A49" s="3">
-        <v>45929.0</v>
+        <v>45930.0</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>1</v>
@@ -4060,38 +4096,38 @@
         <v>18</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="J49" s="4"/>
       <c r="K49" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
-      <c r="O49" s="7" t="s">
-        <v>150</v>
+      <c r="O49" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="P49" s="8">
         <v>1.0</v>
       </c>
       <c r="Q49" s="8">
-        <v>2779.97</v>
+        <v>15423.83</v>
       </c>
       <c r="R49" s="8">
         <v>2.0</v>
@@ -4107,7 +4143,7 @@
     </row>
     <row r="50">
       <c r="A50" s="3">
-        <v>45929.0</v>
+        <v>45930.0</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>1</v>
@@ -4115,44 +4151,42 @@
       <c r="C50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D50" s="4"/>
       <c r="E50" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J50" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K50" s="4" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="O50" s="7" t="s">
-        <v>153</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
       <c r="P50" s="8">
         <v>1.0</v>
       </c>
       <c r="Q50" s="8">
-        <v>3262.93</v>
+        <v>694.0</v>
       </c>
       <c r="R50" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
@@ -4165,7 +4199,7 @@
     </row>
     <row r="51">
       <c r="A51" s="3">
-        <v>45928.0</v>
+        <v>45930.0</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>1</v>
@@ -4173,42 +4207,42 @@
       <c r="C51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J51" s="4"/>
+        <v>153</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K51" s="4" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M51" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="N51" s="6"/>
-      <c r="O51" s="7" t="s">
-        <v>155</v>
-      </c>
+      <c r="O51" s="6"/>
       <c r="P51" s="8">
         <v>1.0</v>
       </c>
       <c r="Q51" s="8">
-        <v>841.21</v>
+        <v>303.0</v>
       </c>
       <c r="R51" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
@@ -4221,7 +4255,7 @@
     </row>
     <row r="52">
       <c r="A52" s="3">
-        <v>45927.0</v>
+        <v>45930.0</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>1</v>
@@ -4231,29 +4265,29 @@
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H52" s="6"/>
       <c r="I52" s="4" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="K52" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L52" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="L52" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="M52" s="4" t="s">
-        <v>159</v>
+        <v>26</v>
       </c>
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
@@ -4261,10 +4295,10 @@
         <v>1.0</v>
       </c>
       <c r="Q52" s="8">
-        <v>4194.0</v>
+        <v>740.0</v>
       </c>
       <c r="R52" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S52" s="6"/>
       <c r="T52" s="6"/>
@@ -4277,7 +4311,7 @@
     </row>
     <row r="53">
       <c r="A53" s="3">
-        <v>45926.0</v>
+        <v>45929.0</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>1</v>
@@ -4285,42 +4319,42 @@
       <c r="C53" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E53" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J53" s="4"/>
       <c r="K53" s="4" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="M53" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="P53" s="8">
         <v>1.0</v>
       </c>
       <c r="Q53" s="8">
-        <v>2059.0</v>
+        <v>2650.7</v>
       </c>
       <c r="R53" s="8">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
@@ -4333,7 +4367,7 @@
     </row>
     <row r="54">
       <c r="A54" s="3">
-        <v>45924.0</v>
+        <v>45929.0</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>1</v>
@@ -4342,38 +4376,38 @@
         <v>18</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H54" s="6"/>
       <c r="I54" s="4" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="J54" s="4"/>
       <c r="K54" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M54" s="4"/>
       <c r="N54" s="6"/>
       <c r="O54" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P54" s="8">
         <v>1.0</v>
       </c>
       <c r="Q54" s="8">
-        <v>428.51</v>
+        <v>2779.97</v>
       </c>
       <c r="R54" s="8">
         <v>2.0</v>
@@ -4389,7 +4423,7 @@
     </row>
     <row r="55">
       <c r="A55" s="3">
-        <v>45921.0</v>
+        <v>45929.0</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>1</v>
@@ -4397,42 +4431,44 @@
       <c r="C55" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E55" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J55" s="4"/>
       <c r="K55" s="4" t="s">
-        <v>167</v>
+        <v>30</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M55" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N55" s="6"/>
-      <c r="O55" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>164</v>
+      </c>
       <c r="P55" s="8">
         <v>1.0</v>
       </c>
       <c r="Q55" s="8">
-        <v>442.0</v>
+        <v>3262.93</v>
       </c>
       <c r="R55" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
@@ -4445,7 +4481,7 @@
     </row>
     <row r="56">
       <c r="A56" s="3">
-        <v>45921.0</v>
+        <v>45928.0</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>1</v>
@@ -4453,42 +4489,42 @@
       <c r="C56" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E56" s="4" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J56" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J56" s="4"/>
       <c r="K56" s="4" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M56" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N56" s="6"/>
-      <c r="O56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="7" t="s">
+        <v>166</v>
+      </c>
       <c r="P56" s="8">
         <v>1.0</v>
       </c>
       <c r="Q56" s="8">
-        <v>579.0</v>
+        <v>841.21</v>
       </c>
       <c r="R56" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S56" s="6"/>
       <c r="T56" s="6"/>
@@ -4501,7 +4537,7 @@
     </row>
     <row r="57">
       <c r="A57" s="3">
-        <v>45921.0</v>
+        <v>45927.0</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>1</v>
@@ -4511,40 +4547,40 @@
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="4" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K57" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="M57" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="L57" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M57" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="N57" s="4"/>
-      <c r="O57" s="7"/>
+      <c r="O57" s="4"/>
       <c r="P57" s="8">
         <v>1.0</v>
       </c>
       <c r="Q57" s="8">
-        <v>563.0</v>
+        <v>4194.0</v>
       </c>
       <c r="R57" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S57" s="6"/>
       <c r="T57" s="6"/>
@@ -4557,7 +4593,7 @@
     </row>
     <row r="58">
       <c r="A58" s="3">
-        <v>45921.0</v>
+        <v>45926.0</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>1</v>
@@ -4565,39 +4601,39 @@
       <c r="C58" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J58" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K58" s="4" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M58" s="4"/>
+        <v>173</v>
+      </c>
+      <c r="M58" s="4" t="s">
+        <v>174</v>
+      </c>
       <c r="N58" s="4"/>
-      <c r="O58" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="O58" s="7"/>
       <c r="P58" s="8">
         <v>1.0</v>
       </c>
       <c r="Q58" s="8">
-        <v>1475.0</v>
+        <v>2059.0</v>
       </c>
       <c r="R58" s="8">
         <v>2.0</v>
@@ -4613,7 +4649,7 @@
     </row>
     <row r="59">
       <c r="A59" s="3">
-        <v>45920.0</v>
+        <v>45924.0</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>1</v>
@@ -4621,42 +4657,42 @@
       <c r="C59" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E59" s="4" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="J59" s="4"/>
       <c r="K59" s="4" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M59" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="M59" s="4"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="7" t="s">
+        <v>176</v>
+      </c>
       <c r="P59" s="8">
         <v>1.0</v>
       </c>
       <c r="Q59" s="8">
-        <v>284.0</v>
+        <v>428.51</v>
       </c>
       <c r="R59" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
@@ -4669,7 +4705,7 @@
     </row>
     <row r="60">
       <c r="A60" s="3">
-        <v>45919.0</v>
+        <v>45921.0</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>1</v>
@@ -4677,42 +4713,42 @@
       <c r="C60" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="4"/>
+      <c r="D60" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E60" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="J60" s="4"/>
       <c r="K60" s="4" t="s">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="M60" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M60" s="4"/>
       <c r="N60" s="6"/>
-      <c r="O60" s="7"/>
+      <c r="O60" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="P60" s="8">
         <v>1.0</v>
       </c>
       <c r="Q60" s="8">
-        <v>2529.0</v>
+        <v>1475.0</v>
       </c>
       <c r="R60" s="8">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
@@ -4725,7 +4761,7 @@
     </row>
     <row r="61">
       <c r="A61" s="3">
-        <v>45919.0</v>
+        <v>45921.0</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>1</v>
@@ -4735,7 +4771,7 @@
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>178</v>
@@ -4745,30 +4781,30 @@
       </c>
       <c r="H61" s="6"/>
       <c r="I61" s="4" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K61" s="4" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="M61" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N61" s="4"/>
-      <c r="O61" s="7"/>
+      <c r="O61" s="4"/>
       <c r="P61" s="8">
         <v>1.0</v>
       </c>
       <c r="Q61" s="8">
-        <v>2755.0</v>
+        <v>442.0</v>
       </c>
       <c r="R61" s="8">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
@@ -4781,7 +4817,7 @@
     </row>
     <row r="62">
       <c r="A62" s="3">
-        <v>45919.0</v>
+        <v>45921.0</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>1</v>
@@ -4789,42 +4825,42 @@
       <c r="C62" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H62" s="6"/>
       <c r="I62" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J62" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K62" s="4" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M62" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="N62" s="6"/>
-      <c r="O62" s="4" t="s">
-        <v>180</v>
-      </c>
+      <c r="O62" s="6"/>
       <c r="P62" s="8">
         <v>1.0</v>
       </c>
       <c r="Q62" s="8">
-        <v>3328.61</v>
+        <v>579.0</v>
       </c>
       <c r="R62" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
@@ -4837,7 +4873,7 @@
     </row>
     <row r="63">
       <c r="A63" s="3">
-        <v>45919.0</v>
+        <v>45921.0</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>1</v>
@@ -4847,38 +4883,40 @@
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>181</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H63" s="6"/>
       <c r="I63" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J63" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K63" s="4" t="s">
-        <v>43</v>
+        <v>182</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M63" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="N63" s="4"/>
-      <c r="O63" s="4" t="s">
-        <v>182</v>
-      </c>
+      <c r="O63" s="7"/>
       <c r="P63" s="8">
         <v>1.0</v>
       </c>
       <c r="Q63" s="8">
-        <v>3052.88</v>
+        <v>563.0</v>
       </c>
       <c r="R63" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
@@ -4891,7 +4929,7 @@
     </row>
     <row r="64">
       <c r="A64" s="3">
-        <v>45918.0</v>
+        <v>45920.0</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>1</v>
@@ -4901,37 +4939,37 @@
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="4" t="s">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K64" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N64" s="4"/>
-      <c r="O64" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="N64" s="6"/>
+      <c r="O64" s="7"/>
       <c r="P64" s="8">
         <v>1.0</v>
       </c>
       <c r="Q64" s="8">
-        <v>662.0</v>
+        <v>284.0</v>
       </c>
       <c r="R64" s="8">
         <v>1.0</v>
@@ -4947,7 +4985,7 @@
     </row>
     <row r="65">
       <c r="A65" s="3">
-        <v>45918.0</v>
+        <v>45919.0</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>1</v>
@@ -4956,38 +4994,38 @@
         <v>18</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>185</v>
+        <v>27</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>186</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H65" s="6"/>
       <c r="I65" s="4" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="J65" s="4"/>
       <c r="K65" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M65" s="4"/>
-      <c r="N65" s="6"/>
+      <c r="N65" s="4"/>
       <c r="O65" s="4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="P65" s="8">
         <v>1.0</v>
       </c>
       <c r="Q65" s="8">
-        <v>3301.27</v>
+        <v>3328.61</v>
       </c>
       <c r="R65" s="8">
         <v>2.0</v>
@@ -5003,7 +5041,7 @@
     </row>
     <row r="66">
       <c r="A66" s="3">
-        <v>45917.0</v>
+        <v>45919.0</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>1</v>
@@ -5013,40 +5051,38 @@
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H66" s="6"/>
       <c r="I66" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J66" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J66" s="4"/>
       <c r="K66" s="4" t="s">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M66" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N66" s="4"/>
-      <c r="O66" s="7"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="P66" s="8">
         <v>1.0</v>
       </c>
       <c r="Q66" s="8">
-        <v>1.0</v>
+        <v>3052.88</v>
       </c>
       <c r="R66" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S66" s="6"/>
       <c r="T66" s="6"/>
@@ -5059,7 +5095,7 @@
     </row>
     <row r="67">
       <c r="A67" s="3">
-        <v>45916.0</v>
+        <v>45919.0</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>1</v>
@@ -5069,40 +5105,40 @@
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="4" t="s">
-        <v>190</v>
+        <v>111</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>191</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>26</v>
       </c>
       <c r="N67" s="6"/>
-      <c r="O67" s="7"/>
+      <c r="O67" s="6"/>
       <c r="P67" s="8">
         <v>1.0</v>
       </c>
       <c r="Q67" s="8">
-        <v>385.0</v>
+        <v>2529.0</v>
       </c>
       <c r="R67" s="8">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="S67" s="6"/>
       <c r="T67" s="6"/>
@@ -5115,7 +5151,7 @@
     </row>
     <row r="68">
       <c r="A68" s="3">
-        <v>45915.0</v>
+        <v>45919.0</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>1</v>
@@ -5123,42 +5159,42 @@
       <c r="C68" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H68" s="6"/>
       <c r="I68" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J68" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K68" s="4" t="s">
         <v>43</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M68" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="M68" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="N68" s="6"/>
-      <c r="O68" s="7" t="s">
-        <v>193</v>
-      </c>
+      <c r="O68" s="4"/>
       <c r="P68" s="8">
         <v>1.0</v>
       </c>
       <c r="Q68" s="8">
-        <v>381.86</v>
+        <v>2755.0</v>
       </c>
       <c r="R68" s="8">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
@@ -5171,7 +5207,7 @@
     </row>
     <row r="69">
       <c r="A69" s="3">
-        <v>45915.0</v>
+        <v>45918.0</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>1</v>
@@ -5179,40 +5215,42 @@
       <c r="C69" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="4"/>
+      <c r="D69" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="E69" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="4" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="J69" s="4"/>
       <c r="K69" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
+      <c r="N69" s="6"/>
       <c r="O69" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="P69" s="8">
         <v>1.0</v>
       </c>
       <c r="Q69" s="8">
-        <v>7136.49</v>
+        <v>3301.27</v>
       </c>
       <c r="R69" s="8">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="S69" s="6"/>
       <c r="T69" s="6"/>
@@ -5225,7 +5263,7 @@
     </row>
     <row r="70">
       <c r="A70" s="3">
-        <v>45915.0</v>
+        <v>45918.0</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>1</v>
@@ -5238,26 +5276,26 @@
         <v>19</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H70" s="6"/>
       <c r="I70" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>40</v>
+        <v>197</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
@@ -5265,7 +5303,7 @@
         <v>1.0</v>
       </c>
       <c r="Q70" s="8">
-        <v>307.0</v>
+        <v>662.0</v>
       </c>
       <c r="R70" s="8">
         <v>1.0</v>
@@ -5281,7 +5319,7 @@
     </row>
     <row r="71">
       <c r="A71" s="3">
-        <v>45914.0</v>
+        <v>45917.0</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>1</v>
@@ -5289,42 +5327,42 @@
       <c r="C71" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J71" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K71" s="4" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M71" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="M71" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="N71" s="6"/>
-      <c r="O71" s="7" t="s">
-        <v>197</v>
-      </c>
+      <c r="O71" s="6"/>
       <c r="P71" s="8">
         <v>1.0</v>
       </c>
       <c r="Q71" s="8">
-        <v>196.08</v>
+        <v>1.0</v>
       </c>
       <c r="R71" s="8">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
@@ -5337,7 +5375,7 @@
     </row>
     <row r="72">
       <c r="A72" s="3">
-        <v>45914.0</v>
+        <v>45916.0</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>1</v>
@@ -5350,37 +5388,37 @@
         <v>19</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H72" s="6"/>
       <c r="I72" s="4" t="s">
-        <v>22</v>
+        <v>201</v>
       </c>
       <c r="J72" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="N72" s="4"/>
+      <c r="O72" s="7"/>
       <c r="P72" s="8">
         <v>1.0</v>
       </c>
       <c r="Q72" s="8">
-        <v>1353.0</v>
+        <v>385.0</v>
       </c>
       <c r="R72" s="8">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
@@ -5393,7 +5431,7 @@
     </row>
     <row r="73">
       <c r="A73" s="3">
-        <v>45914.0</v>
+        <v>45915.0</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>1</v>
@@ -5401,39 +5439,39 @@
       <c r="C73" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D73" s="4"/>
+      <c r="D73" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E73" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J73" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="J73" s="4"/>
       <c r="K73" s="4" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M73" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M73" s="4"/>
       <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
+      <c r="O73" s="7" t="s">
+        <v>204</v>
+      </c>
       <c r="P73" s="8">
         <v>1.0</v>
       </c>
       <c r="Q73" s="8">
-        <v>974.0</v>
+        <v>381.86</v>
       </c>
       <c r="R73" s="8">
         <v>1.0</v>
@@ -5449,7 +5487,7 @@
     </row>
     <row r="74">
       <c r="A74" s="3">
-        <v>45914.0</v>
+        <v>45915.0</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>1</v>
@@ -5459,40 +5497,38 @@
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H74" s="6"/>
       <c r="I74" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J74" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="J74" s="4"/>
       <c r="K74" s="4" t="s">
-        <v>202</v>
+        <v>30</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M74" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="P74" s="8">
         <v>1.0</v>
       </c>
       <c r="Q74" s="8">
-        <v>28.0</v>
+        <v>7136.49</v>
       </c>
       <c r="R74" s="8">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
@@ -5505,7 +5541,7 @@
     </row>
     <row r="75">
       <c r="A75" s="3">
-        <v>45913.0</v>
+        <v>45915.0</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>1</v>
@@ -5513,39 +5549,39 @@
       <c r="C75" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J75" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K75" s="4" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M75" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="M75" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="N75" s="6"/>
-      <c r="O75" s="7" t="s">
-        <v>204</v>
-      </c>
+      <c r="O75" s="4"/>
       <c r="P75" s="8">
         <v>1.0</v>
       </c>
       <c r="Q75" s="8">
-        <v>1088.82</v>
+        <v>307.0</v>
       </c>
       <c r="R75" s="8">
         <v>1.0</v>
@@ -5561,7 +5597,7 @@
     </row>
     <row r="76">
       <c r="A76" s="3">
-        <v>45913.0</v>
+        <v>45914.0</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>1</v>
@@ -5570,41 +5606,41 @@
         <v>18</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H76" s="6"/>
       <c r="I76" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J76" s="4"/>
       <c r="K76" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P76" s="8">
         <v>1.0</v>
       </c>
       <c r="Q76" s="8">
-        <v>416.01</v>
+        <v>196.08</v>
       </c>
       <c r="R76" s="8">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
@@ -5617,7 +5653,7 @@
     </row>
     <row r="77">
       <c r="A77" s="3">
-        <v>45913.0</v>
+        <v>45914.0</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>1</v>
@@ -5627,40 +5663,40 @@
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H77" s="6"/>
       <c r="I77" s="4" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>209</v>
+        <v>47</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
+      <c r="O77" s="7"/>
       <c r="P77" s="8">
         <v>1.0</v>
       </c>
       <c r="Q77" s="8">
-        <v>6782.0</v>
+        <v>1353.0</v>
       </c>
       <c r="R77" s="8">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
@@ -5673,7 +5709,7 @@
     </row>
     <row r="78">
       <c r="A78" s="3">
-        <v>45912.0</v>
+        <v>45914.0</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>1</v>
@@ -5681,39 +5717,39 @@
       <c r="C78" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>211</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H78" s="6"/>
       <c r="I78" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="L78" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4" t="s">
-        <v>213</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="M78" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N78" s="6"/>
+      <c r="O78" s="7"/>
       <c r="P78" s="8">
         <v>1.0</v>
       </c>
       <c r="Q78" s="8">
-        <v>380.52</v>
+        <v>974.0</v>
       </c>
       <c r="R78" s="8">
         <v>1.0</v>
@@ -5729,7 +5765,7 @@
     </row>
     <row r="79">
       <c r="A79" s="3">
-        <v>45912.0</v>
+        <v>45914.0</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>1</v>
@@ -5739,37 +5775,37 @@
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H79" s="6"/>
       <c r="I79" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K79" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="N79" s="4"/>
+      <c r="O79" s="7"/>
       <c r="P79" s="8">
         <v>1.0</v>
       </c>
       <c r="Q79" s="8">
-        <v>310.0</v>
+        <v>28.0</v>
       </c>
       <c r="R79" s="8">
         <v>1.0</v>
@@ -5785,7 +5821,7 @@
     </row>
     <row r="80">
       <c r="A80" s="3">
-        <v>45910.0</v>
+        <v>45913.0</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>1</v>
@@ -5794,41 +5830,41 @@
         <v>18</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H80" s="6"/>
       <c r="I80" s="4" t="s">
-        <v>212</v>
+        <v>31</v>
       </c>
       <c r="J80" s="4"/>
       <c r="K80" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
+      <c r="N80" s="6"/>
       <c r="O80" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P80" s="8">
         <v>1.0</v>
       </c>
       <c r="Q80" s="8">
-        <v>310.72</v>
+        <v>1088.82</v>
       </c>
       <c r="R80" s="8">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
@@ -5841,7 +5877,7 @@
     </row>
     <row r="81">
       <c r="A81" s="3">
-        <v>45910.0</v>
+        <v>45913.0</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>1</v>
@@ -5849,42 +5885,42 @@
       <c r="C81" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="4"/>
+      <c r="D81" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E81" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="J81" s="4"/>
       <c r="K81" s="4" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M81" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="7" t="s">
+        <v>218</v>
+      </c>
       <c r="P81" s="8">
         <v>1.0</v>
       </c>
       <c r="Q81" s="8">
-        <v>636.0</v>
+        <v>416.01</v>
       </c>
       <c r="R81" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
@@ -5897,7 +5933,7 @@
     </row>
     <row r="82">
       <c r="A82" s="3">
-        <v>45909.0</v>
+        <v>45913.0</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>1</v>
@@ -5905,42 +5941,42 @@
       <c r="C82" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D82" s="4"/>
       <c r="E82" s="4" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H82" s="6"/>
       <c r="I82" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J82" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="K82" s="4" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M82" s="4"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="4" t="s">
         <v>221</v>
       </c>
+      <c r="M82" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="N82" s="4"/>
+      <c r="O82" s="7"/>
       <c r="P82" s="8">
         <v>1.0</v>
       </c>
       <c r="Q82" s="8">
-        <v>44.7</v>
+        <v>6782.0</v>
       </c>
       <c r="R82" s="8">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
@@ -5953,7 +5989,7 @@
     </row>
     <row r="83">
       <c r="A83" s="3">
-        <v>45908.0</v>
+        <v>45912.0</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>1</v>
@@ -5962,41 +5998,41 @@
         <v>18</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H83" s="6"/>
       <c r="I83" s="4" t="s">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="J83" s="4"/>
       <c r="K83" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="6"/>
-      <c r="O83" s="7" t="s">
-        <v>223</v>
+      <c r="O83" s="4" t="s">
+        <v>225</v>
       </c>
       <c r="P83" s="8">
         <v>1.0</v>
       </c>
       <c r="Q83" s="8">
-        <v>644.47</v>
+        <v>380.52</v>
       </c>
       <c r="R83" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
@@ -6009,7 +6045,7 @@
     </row>
     <row r="84">
       <c r="A84" s="3">
-        <v>45908.0</v>
+        <v>45912.0</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>1</v>
@@ -6017,42 +6053,42 @@
       <c r="C84" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D84" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H84" s="6"/>
       <c r="I84" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="J84" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K84" s="4" t="s">
-        <v>43</v>
+        <v>227</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M84" s="4"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="7" t="s">
-        <v>226</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="M84" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N84" s="4"/>
+      <c r="O84" s="7"/>
       <c r="P84" s="8">
         <v>1.0</v>
       </c>
       <c r="Q84" s="8">
-        <v>2134.48</v>
+        <v>310.0</v>
       </c>
       <c r="R84" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S84" s="6"/>
       <c r="T84" s="6"/>
@@ -6065,7 +6101,7 @@
     </row>
     <row r="85">
       <c r="A85" s="3">
-        <v>45908.0</v>
+        <v>45910.0</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>1</v>
@@ -6073,42 +6109,42 @@
       <c r="C85" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D85" s="4"/>
+      <c r="D85" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E85" s="4" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H85" s="6"/>
       <c r="I85" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="J85" s="4"/>
       <c r="K85" s="4" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M85" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M85" s="4"/>
       <c r="N85" s="4"/>
-      <c r="O85" s="7"/>
+      <c r="O85" s="7" t="s">
+        <v>229</v>
+      </c>
       <c r="P85" s="8">
         <v>1.0</v>
       </c>
       <c r="Q85" s="8">
-        <v>2364.0</v>
+        <v>310.72</v>
       </c>
       <c r="R85" s="8">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
@@ -6121,7 +6157,7 @@
     </row>
     <row r="86">
       <c r="A86" s="3">
-        <v>45907.0</v>
+        <v>45910.0</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>1</v>
@@ -6129,42 +6165,42 @@
       <c r="C86" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H86" s="6"/>
       <c r="I86" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J86" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="K86" s="4" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M86" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="M86" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="N86" s="4"/>
-      <c r="O86" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="O86" s="4"/>
       <c r="P86" s="8">
         <v>1.0</v>
       </c>
       <c r="Q86" s="8">
-        <v>1569.99</v>
+        <v>636.0</v>
       </c>
       <c r="R86" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S86" s="6"/>
       <c r="T86" s="6"/>
@@ -6177,7 +6213,7 @@
     </row>
     <row r="87">
       <c r="A87" s="3">
-        <v>45906.0</v>
+        <v>45909.0</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>1</v>
@@ -6185,42 +6221,42 @@
       <c r="C87" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="4"/>
+      <c r="D87" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E87" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H87" s="6"/>
       <c r="I87" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J87" s="4"/>
       <c r="K87" s="4" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M87" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N87" s="4"/>
-      <c r="O87" s="7"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="P87" s="8">
         <v>1.0</v>
       </c>
       <c r="Q87" s="8">
-        <v>327.0</v>
+        <v>44.7</v>
       </c>
       <c r="R87" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
@@ -6233,7 +6269,7 @@
     </row>
     <row r="88">
       <c r="A88" s="3">
-        <v>45905.0</v>
+        <v>45908.0</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>1</v>
@@ -6241,42 +6277,42 @@
       <c r="C88" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H88" s="6"/>
       <c r="I88" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J88" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K88" s="4" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M88" s="4"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="4" t="s">
-        <v>232</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="M88" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N88" s="4"/>
+      <c r="O88" s="7"/>
       <c r="P88" s="8">
         <v>1.0</v>
       </c>
       <c r="Q88" s="8">
-        <v>3091.1</v>
+        <v>2364.0</v>
       </c>
       <c r="R88" s="8">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
@@ -6289,7 +6325,7 @@
     </row>
     <row r="89">
       <c r="A89" s="3">
-        <v>45905.0</v>
+        <v>45908.0</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>1</v>
@@ -6298,38 +6334,38 @@
         <v>18</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H89" s="6"/>
       <c r="I89" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J89" s="4"/>
       <c r="K89" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
-      <c r="O89" s="4" t="s">
-        <v>234</v>
+      <c r="O89" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="P89" s="8">
         <v>1.0</v>
       </c>
       <c r="Q89" s="8">
-        <v>2710.33</v>
+        <v>644.47</v>
       </c>
       <c r="R89" s="8">
         <v>2.0</v>
@@ -6345,7 +6381,7 @@
     </row>
     <row r="90">
       <c r="A90" s="3">
-        <v>45905.0</v>
+        <v>45908.0</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>1</v>
@@ -6353,42 +6389,42 @@
       <c r="C90" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D90" s="4"/>
+      <c r="D90" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E90" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H90" s="6"/>
       <c r="I90" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="J90" s="4"/>
       <c r="K90" s="4" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M90" s="4" t="s">
-        <v>51</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M90" s="4"/>
       <c r="N90" s="4"/>
-      <c r="O90" s="7"/>
+      <c r="O90" s="7" t="s">
+        <v>239</v>
+      </c>
       <c r="P90" s="8">
         <v>1.0</v>
       </c>
       <c r="Q90" s="8">
-        <v>268.0</v>
+        <v>2134.48</v>
       </c>
       <c r="R90" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S90" s="6"/>
       <c r="T90" s="6"/>
@@ -6401,7 +6437,7 @@
     </row>
     <row r="91">
       <c r="A91" s="3">
-        <v>45905.0</v>
+        <v>45907.0</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>1</v>
@@ -6409,39 +6445,39 @@
       <c r="C91" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="4"/>
+      <c r="D91" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E91" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J91" s="4"/>
       <c r="K91" s="4" t="s">
-        <v>237</v>
+        <v>30</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="M91" s="4" t="s">
-        <v>239</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M91" s="4"/>
       <c r="N91" s="4"/>
-      <c r="O91" s="7"/>
+      <c r="O91" s="7" t="s">
+        <v>241</v>
+      </c>
       <c r="P91" s="8">
         <v>1.0</v>
       </c>
       <c r="Q91" s="8">
-        <v>6367.0</v>
+        <v>1569.99</v>
       </c>
       <c r="R91" s="8">
         <v>2.0</v>
@@ -6457,7 +6493,7 @@
     </row>
     <row r="92">
       <c r="A92" s="3">
-        <v>45904.0</v>
+        <v>45906.0</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>1</v>
@@ -6465,42 +6501,42 @@
       <c r="C92" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D92" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H92" s="6"/>
       <c r="I92" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J92" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K92" s="4" t="s">
-        <v>43</v>
+        <v>154</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M92" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="N92" s="6"/>
-      <c r="O92" s="7" t="s">
-        <v>241</v>
-      </c>
+      <c r="O92" s="7"/>
       <c r="P92" s="8">
         <v>1.0</v>
       </c>
       <c r="Q92" s="8">
-        <v>1185.04</v>
+        <v>327.0</v>
       </c>
       <c r="R92" s="8">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
@@ -6513,7 +6549,7 @@
     </row>
     <row r="93">
       <c r="A93" s="3">
-        <v>45904.0</v>
+        <v>45905.0</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>1</v>
@@ -6523,37 +6559,37 @@
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H93" s="6"/>
       <c r="I93" s="4" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="J93" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>244</v>
+        <v>154</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N93" s="6"/>
-      <c r="O93" s="4"/>
+      <c r="O93" s="7"/>
       <c r="P93" s="8">
         <v>1.0</v>
       </c>
       <c r="Q93" s="8">
-        <v>499.0</v>
+        <v>268.0</v>
       </c>
       <c r="R93" s="8">
         <v>1.0</v>
@@ -6569,7 +6605,7 @@
     </row>
     <row r="94">
       <c r="A94" s="3">
-        <v>45904.0</v>
+        <v>45905.0</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>1</v>
@@ -6579,40 +6615,40 @@
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H94" s="6"/>
       <c r="I94" s="4" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="K94" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="L94" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="L94" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="M94" s="4" t="s">
-        <v>51</v>
+        <v>247</v>
       </c>
       <c r="N94" s="6"/>
-      <c r="O94" s="6"/>
+      <c r="O94" s="4"/>
       <c r="P94" s="8">
         <v>1.0</v>
       </c>
       <c r="Q94" s="8">
-        <v>670.0</v>
+        <v>6367.0</v>
       </c>
       <c r="R94" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S94" s="6"/>
       <c r="T94" s="6"/>
@@ -6625,7 +6661,7 @@
     </row>
     <row r="95">
       <c r="A95" s="3">
-        <v>45904.0</v>
+        <v>45905.0</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>1</v>
@@ -6633,42 +6669,42 @@
       <c r="C95" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D95" s="4"/>
+      <c r="D95" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E95" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H95" s="6"/>
       <c r="I95" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J95" s="4"/>
       <c r="K95" s="4" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M95" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N95" s="6"/>
-      <c r="O95" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4" t="s">
+        <v>249</v>
+      </c>
       <c r="P95" s="8">
         <v>1.0</v>
       </c>
       <c r="Q95" s="8">
-        <v>433.0</v>
+        <v>3091.1</v>
       </c>
       <c r="R95" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S95" s="6"/>
       <c r="T95" s="6"/>
@@ -6681,7 +6717,7 @@
     </row>
     <row r="96">
       <c r="A96" s="3">
-        <v>45903.0</v>
+        <v>45905.0</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>1</v>
@@ -6690,38 +6726,38 @@
         <v>18</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H96" s="6"/>
       <c r="I96" s="4" t="s">
-        <v>249</v>
+        <v>34</v>
       </c>
       <c r="J96" s="4"/>
       <c r="K96" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M96" s="4"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="7" t="s">
-        <v>250</v>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4" t="s">
+        <v>251</v>
       </c>
       <c r="P96" s="8">
         <v>1.0</v>
       </c>
       <c r="Q96" s="8">
-        <v>3033.57</v>
+        <v>2710.33</v>
       </c>
       <c r="R96" s="8">
         <v>2.0</v>
@@ -6737,7 +6773,7 @@
     </row>
     <row r="97">
       <c r="A97" s="3">
-        <v>45903.0</v>
+        <v>45904.0</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>1</v>
@@ -6747,29 +6783,29 @@
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H97" s="6"/>
       <c r="I97" s="4" t="s">
-        <v>22</v>
+        <v>253</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N97" s="4"/>
       <c r="O97" s="7"/>
@@ -6777,7 +6813,7 @@
         <v>1.0</v>
       </c>
       <c r="Q97" s="8">
-        <v>410.0</v>
+        <v>499.0</v>
       </c>
       <c r="R97" s="8">
         <v>1.0</v>
@@ -6793,7 +6829,7 @@
     </row>
     <row r="98">
       <c r="A98" s="3">
-        <v>45903.0</v>
+        <v>45904.0</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>1</v>
@@ -6803,37 +6839,37 @@
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="4" t="s">
-        <v>22</v>
+        <v>253</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N98" s="4"/>
-      <c r="O98" s="7"/>
+      <c r="O98" s="4"/>
       <c r="P98" s="8">
         <v>1.0</v>
       </c>
       <c r="Q98" s="8">
-        <v>364.0</v>
+        <v>670.0</v>
       </c>
       <c r="R98" s="8">
         <v>1.0</v>
@@ -6849,7 +6885,7 @@
     </row>
     <row r="99">
       <c r="A99" s="3">
-        <v>45902.0</v>
+        <v>45904.0</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>1</v>
@@ -6857,44 +6893,42 @@
       <c r="C99" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H99" s="6"/>
       <c r="I99" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="J99" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="K99" s="4" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="O99" s="7" t="s">
-        <v>256</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
       <c r="P99" s="8">
         <v>1.0</v>
       </c>
       <c r="Q99" s="8">
-        <v>1207.05</v>
+        <v>433.0</v>
       </c>
       <c r="R99" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S99" s="6"/>
       <c r="T99" s="6"/>
@@ -6907,7 +6941,7 @@
     </row>
     <row r="100">
       <c r="A100" s="3">
-        <v>45902.0</v>
+        <v>45904.0</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>1</v>
@@ -6916,38 +6950,38 @@
         <v>18</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H100" s="6"/>
       <c r="I100" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J100" s="4"/>
       <c r="K100" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P100" s="8">
         <v>1.0</v>
       </c>
       <c r="Q100" s="8">
-        <v>1513.71</v>
+        <v>1185.04</v>
       </c>
       <c r="R100" s="8">
         <v>3.0</v>
@@ -6963,7 +6997,7 @@
     </row>
     <row r="101">
       <c r="A101" s="3">
-        <v>45902.0</v>
+        <v>45903.0</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>1</v>
@@ -6971,44 +7005,42 @@
       <c r="C101" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H101" s="6"/>
       <c r="I101" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J101" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K101" s="4" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="O101" s="7" t="s">
-        <v>261</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="M101" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N101" s="4"/>
+      <c r="O101" s="7"/>
       <c r="P101" s="8">
         <v>1.0</v>
       </c>
       <c r="Q101" s="8">
-        <v>295.2</v>
+        <v>410.0</v>
       </c>
       <c r="R101" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
@@ -7021,7 +7053,7 @@
     </row>
     <row r="102">
       <c r="A102" s="3">
-        <v>45902.0</v>
+        <v>45903.0</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>1</v>
@@ -7031,7 +7063,7 @@
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F102" s="5" t="s">
         <v>262</v>
@@ -7041,27 +7073,27 @@
       </c>
       <c r="H102" s="6"/>
       <c r="I102" s="4" t="s">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>238</v>
+        <v>47</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N102" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="N102" s="4"/>
       <c r="O102" s="7"/>
       <c r="P102" s="8">
         <v>1.0</v>
       </c>
       <c r="Q102" s="8">
-        <v>477.0</v>
+        <v>364.0</v>
       </c>
       <c r="R102" s="8">
         <v>1.0</v>
@@ -7077,7 +7109,7 @@
     </row>
     <row r="103">
       <c r="A103" s="3">
-        <v>45902.0</v>
+        <v>45903.0</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>1</v>
@@ -7085,42 +7117,42 @@
       <c r="C103" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D103" s="4"/>
+      <c r="D103" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E103" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F103" s="5" t="s">
         <v>263</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H103" s="6"/>
       <c r="I103" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="J103" s="4"/>
       <c r="K103" s="4" t="s">
-        <v>264</v>
+        <v>30</v>
       </c>
       <c r="L103" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="M103" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="N103" s="6"/>
-      <c r="O103" s="4"/>
       <c r="P103" s="8">
         <v>1.0</v>
       </c>
       <c r="Q103" s="8">
-        <v>2504.0</v>
+        <v>3033.57</v>
       </c>
       <c r="R103" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S103" s="6"/>
       <c r="T103" s="6"/>
@@ -7133,7 +7165,7 @@
     </row>
     <row r="104">
       <c r="A104" s="3">
-        <v>45901.0</v>
+        <v>45902.0</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>1</v>
@@ -7141,42 +7173,42 @@
       <c r="C104" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H104" s="6"/>
       <c r="I104" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J104" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K104" s="4" t="s">
-        <v>43</v>
+        <v>267</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M104" s="4"/>
+        <v>268</v>
+      </c>
+      <c r="M104" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="N104" s="6"/>
-      <c r="O104" s="7" t="s">
-        <v>268</v>
-      </c>
+      <c r="O104" s="7"/>
       <c r="P104" s="8">
         <v>1.0</v>
       </c>
       <c r="Q104" s="8">
-        <v>1439.93</v>
+        <v>2504.0</v>
       </c>
       <c r="R104" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S104" s="6"/>
       <c r="T104" s="6"/>
@@ -7189,7 +7221,7 @@
     </row>
     <row r="105">
       <c r="A105" s="3">
-        <v>45901.0</v>
+        <v>45902.0</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>1</v>
@@ -7197,42 +7229,42 @@
       <c r="C105" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D105" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D105" s="4"/>
       <c r="E105" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H105" s="6"/>
       <c r="I105" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J105" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K105" s="4" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M105" s="4"/>
+        <v>246</v>
+      </c>
+      <c r="M105" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="N105" s="4"/>
-      <c r="O105" s="7" t="s">
-        <v>270</v>
-      </c>
+      <c r="O105" s="7"/>
       <c r="P105" s="8">
         <v>1.0</v>
       </c>
       <c r="Q105" s="8">
-        <v>2273.21</v>
+        <v>477.0</v>
       </c>
       <c r="R105" s="8">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="S105" s="6"/>
       <c r="T105" s="6"/>
@@ -7245,7 +7277,7 @@
     </row>
     <row r="106">
       <c r="A106" s="3">
-        <v>45901.0</v>
+        <v>45902.0</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>1</v>
@@ -7254,38 +7286,40 @@
         <v>18</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F106" s="5" t="s">
         <v>271</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H106" s="6"/>
       <c r="I106" s="4" t="s">
-        <v>22</v>
+        <v>253</v>
       </c>
       <c r="J106" s="4"/>
       <c r="K106" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
+      <c r="N106" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="O106" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P106" s="8">
         <v>1.0</v>
       </c>
       <c r="Q106" s="8">
-        <v>2497.87</v>
+        <v>1207.05</v>
       </c>
       <c r="R106" s="8">
         <v>2.0</v>
@@ -7301,7 +7335,7 @@
     </row>
     <row r="107">
       <c r="A107" s="3">
-        <v>45901.0</v>
+        <v>45902.0</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>1</v>
@@ -7309,42 +7343,42 @@
       <c r="C107" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D107" s="4"/>
+      <c r="D107" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E107" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H107" s="6"/>
       <c r="I107" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J107" s="4"/>
       <c r="K107" s="4" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M107" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="N107" s="4"/>
-      <c r="O107" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="M107" s="4"/>
+      <c r="N107" s="6"/>
+      <c r="O107" s="7" t="s">
+        <v>275</v>
+      </c>
       <c r="P107" s="8">
         <v>1.0</v>
       </c>
       <c r="Q107" s="8">
-        <v>1964.0</v>
+        <v>1513.71</v>
       </c>
       <c r="R107" s="8">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="S107" s="6"/>
       <c r="T107" s="6"/>
@@ -7357,7 +7391,7 @@
     </row>
     <row r="108">
       <c r="A108" s="3">
-        <v>45901.0</v>
+        <v>45902.0</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>1</v>
@@ -7365,42 +7399,44 @@
       <c r="C108" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D108" s="4"/>
+      <c r="D108" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E108" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H108" s="6"/>
       <c r="I108" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J108" s="4"/>
       <c r="K108" s="4" t="s">
-        <v>275</v>
+        <v>30</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M108" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N108" s="4"/>
-      <c r="O108" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="O108" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="P108" s="8">
         <v>1.0</v>
       </c>
       <c r="Q108" s="8">
-        <v>364.0</v>
+        <v>295.2</v>
       </c>
       <c r="R108" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S108" s="6"/>
       <c r="T108" s="6"/>
@@ -7413,7 +7449,7 @@
     </row>
     <row r="109">
       <c r="A109" s="3">
-        <v>45900.0</v>
+        <v>45901.0</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>1</v>
@@ -7421,42 +7457,42 @@
       <c r="C109" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D109" s="4"/>
       <c r="E109" s="4" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H109" s="6"/>
       <c r="I109" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J109" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K109" s="4" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M109" s="4"/>
+        <v>77</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="N109" s="4"/>
-      <c r="O109" s="4" t="s">
-        <v>277</v>
-      </c>
+      <c r="O109" s="4"/>
       <c r="P109" s="8">
         <v>1.0</v>
       </c>
       <c r="Q109" s="8">
-        <v>226.53</v>
+        <v>1964.0</v>
       </c>
       <c r="R109" s="8">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
@@ -7469,7 +7505,7 @@
     </row>
     <row r="110">
       <c r="A110" s="3">
-        <v>45900.0</v>
+        <v>45901.0</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>1</v>
@@ -7477,44 +7513,42 @@
       <c r="C110" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D110" s="4"/>
       <c r="E110" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H110" s="6"/>
       <c r="I110" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J110" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K110" s="4" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="O110" s="7" t="s">
-        <v>280</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N110" s="4"/>
+      <c r="O110" s="7"/>
       <c r="P110" s="8">
         <v>1.0</v>
       </c>
       <c r="Q110" s="8">
-        <v>5106.19</v>
+        <v>364.0</v>
       </c>
       <c r="R110" s="8">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="S110" s="6"/>
       <c r="T110" s="6"/>
@@ -7527,7 +7561,7 @@
     </row>
     <row r="111">
       <c r="A111" s="3">
-        <v>45900.0</v>
+        <v>45901.0</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>1</v>
@@ -7536,38 +7570,38 @@
         <v>18</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F111" s="5" t="s">
         <v>281</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H111" s="6"/>
       <c r="I111" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J111" s="4"/>
       <c r="K111" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
-      <c r="O111" s="4" t="s">
+      <c r="O111" s="7" t="s">
         <v>282</v>
       </c>
       <c r="P111" s="8">
         <v>1.0</v>
       </c>
       <c r="Q111" s="8">
-        <v>283.94</v>
+        <v>1439.93</v>
       </c>
       <c r="R111" s="8">
         <v>2.0</v>
@@ -7583,7 +7617,7 @@
     </row>
     <row r="112">
       <c r="A112" s="3">
-        <v>45900.0</v>
+        <v>45901.0</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>1</v>
@@ -7591,42 +7625,42 @@
       <c r="C112" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D112" s="4"/>
+      <c r="D112" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E112" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>283</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H112" s="6"/>
       <c r="I112" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J112" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J112" s="4"/>
       <c r="K112" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L112" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M112" s="4"/>
+      <c r="N112" s="6"/>
+      <c r="O112" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="L112" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="M112" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="N112" s="6"/>
-      <c r="O112" s="7"/>
       <c r="P112" s="8">
         <v>1.0</v>
       </c>
       <c r="Q112" s="8">
-        <v>409.0</v>
+        <v>2273.21</v>
       </c>
       <c r="R112" s="8">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="S112" s="6"/>
       <c r="T112" s="6"/>
@@ -7639,7 +7673,7 @@
     </row>
     <row r="113">
       <c r="A113" s="3">
-        <v>45899.0</v>
+        <v>45901.0</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>1</v>
@@ -7648,38 +7682,38 @@
         <v>18</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H113" s="6"/>
       <c r="I113" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M113" s="4"/>
-      <c r="N113" s="6"/>
+      <c r="N113" s="4"/>
       <c r="O113" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="P113" s="8">
         <v>1.0</v>
       </c>
       <c r="Q113" s="8">
-        <v>42.05</v>
+        <v>2497.87</v>
       </c>
       <c r="R113" s="8">
         <v>2.0</v>
@@ -7695,7 +7729,7 @@
     </row>
     <row r="114">
       <c r="A114" s="3">
-        <v>45899.0</v>
+        <v>45900.0</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>1</v>
@@ -7703,42 +7737,42 @@
       <c r="C114" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D114" s="4"/>
+      <c r="D114" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E114" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H114" s="6"/>
       <c r="I114" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J114" s="4"/>
       <c r="K114" s="4" t="s">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="M114" s="4" t="s">
-        <v>292</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="M114" s="4"/>
       <c r="N114" s="6"/>
-      <c r="O114" s="6"/>
+      <c r="O114" s="4" t="s">
+        <v>288</v>
+      </c>
       <c r="P114" s="8">
         <v>1.0</v>
       </c>
       <c r="Q114" s="8">
-        <v>740.0</v>
+        <v>226.53</v>
       </c>
       <c r="R114" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S114" s="6"/>
       <c r="T114" s="6"/>
@@ -7751,7 +7785,7 @@
     </row>
     <row r="115">
       <c r="A115" s="3">
-        <v>45899.0</v>
+        <v>45900.0</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>1</v>
@@ -7759,42 +7793,44 @@
       <c r="C115" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D115" s="4"/>
+      <c r="D115" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E115" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H115" s="6"/>
       <c r="I115" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J115" s="4"/>
       <c r="K115" s="4" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M115" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N115" s="6"/>
-      <c r="O115" s="6"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="O115" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="P115" s="8">
         <v>1.0</v>
       </c>
       <c r="Q115" s="8">
-        <v>765.0</v>
+        <v>5106.19</v>
       </c>
       <c r="R115" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S115" s="6"/>
       <c r="T115" s="6"/>
@@ -7807,7 +7843,7 @@
     </row>
     <row r="116">
       <c r="A116" s="3">
-        <v>45899.0</v>
+        <v>45900.0</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>1</v>
@@ -7815,42 +7851,42 @@
       <c r="C116" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="4"/>
+      <c r="D116" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E116" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H116" s="6"/>
       <c r="I116" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J116" s="4"/>
       <c r="K116" s="4" t="s">
-        <v>184</v>
+        <v>30</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M116" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="M116" s="4"/>
       <c r="N116" s="6"/>
-      <c r="O116" s="6"/>
+      <c r="O116" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="P116" s="8">
         <v>1.0</v>
       </c>
       <c r="Q116" s="8">
-        <v>384.0</v>
+        <v>283.94</v>
       </c>
       <c r="R116" s="8">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="S116" s="6"/>
       <c r="T116" s="6"/>
@@ -7863,7 +7899,7 @@
     </row>
     <row r="117">
       <c r="A117" s="3">
-        <v>45898.0</v>
+        <v>45900.0</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>1</v>
@@ -7871,42 +7907,42 @@
       <c r="C117" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D117" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="D117" s="4"/>
       <c r="E117" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="H117" s="6"/>
       <c r="I117" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J117" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="K117" s="4" t="s">
-        <v>43</v>
+        <v>295</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M117" s="4"/>
+        <v>296</v>
+      </c>
+      <c r="M117" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="N117" s="6"/>
-      <c r="O117" s="7" t="s">
-        <v>297</v>
-      </c>
+      <c r="O117" s="7"/>
       <c r="P117" s="8">
         <v>1.0</v>
       </c>
       <c r="Q117" s="8">
-        <v>592.89</v>
+        <v>409.0</v>
       </c>
       <c r="R117" s="8">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="S117" s="6"/>
       <c r="T117" s="6"/>
@@ -7919,7 +7955,7 @@
     </row>
     <row r="118">
       <c r="A118" s="3">
-        <v>45898.0</v>
+        <v>45899.0</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>1</v>
@@ -7928,30 +7964,30 @@
         <v>18</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>298</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H118" s="6"/>
       <c r="I118" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J118" s="4"/>
       <c r="K118" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
+      <c r="N118" s="6"/>
       <c r="O118" s="7" t="s">
         <v>299</v>
       </c>
@@ -7959,10 +7995,10 @@
         <v>1.0</v>
       </c>
       <c r="Q118" s="8">
-        <v>638.88</v>
+        <v>42.05</v>
       </c>
       <c r="R118" s="8">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="S118" s="6"/>
       <c r="T118" s="6"/>
@@ -7975,7 +8011,7 @@
     </row>
     <row r="119">
       <c r="A119" s="3">
-        <v>45898.0</v>
+        <v>45899.0</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>1</v>
@@ -7985,7 +8021,7 @@
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F119" s="5" t="s">
         <v>300</v>
@@ -7995,19 +8031,19 @@
       </c>
       <c r="H119" s="6"/>
       <c r="I119" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K119" s="4" t="s">
         <v>301</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>25</v>
+        <v>302</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>30</v>
+        <v>303</v>
       </c>
       <c r="N119" s="6"/>
       <c r="O119" s="7"/>
@@ -8015,7 +8051,7 @@
         <v>1.0</v>
       </c>
       <c r="Q119" s="8">
-        <v>294.0</v>
+        <v>740.0</v>
       </c>
       <c r="R119" s="8">
         <v>1.0</v>
@@ -8031,7 +8067,7 @@
     </row>
     <row r="120">
       <c r="A120" s="3">
-        <v>45898.0</v>
+        <v>45899.0</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>1</v>
@@ -8041,37 +8077,37 @@
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H120" s="6"/>
       <c r="I120" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N120" s="4"/>
-      <c r="O120" s="4"/>
+      <c r="O120" s="7"/>
       <c r="P120" s="8">
         <v>1.0</v>
       </c>
       <c r="Q120" s="8">
-        <v>281.0</v>
+        <v>765.0</v>
       </c>
       <c r="R120" s="8">
         <v>1.0</v>
@@ -8087,7 +8123,7 @@
     </row>
     <row r="121">
       <c r="A121" s="3">
-        <v>45898.0</v>
+        <v>45899.0</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>1</v>
@@ -8097,37 +8133,37 @@
       </c>
       <c r="D121" s="4"/>
       <c r="E121" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H121" s="6"/>
       <c r="I121" s="4" t="s">
-        <v>112</v>
+        <v>306</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>305</v>
+        <v>47</v>
       </c>
       <c r="M121" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="N121" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="N121" s="4"/>
       <c r="O121" s="7"/>
       <c r="P121" s="8">
         <v>1.0</v>
       </c>
       <c r="Q121" s="8">
-        <v>2765.0</v>
+        <v>384.0</v>
       </c>
       <c r="R121" s="8">
         <v>1.0</v>
@@ -8151,42 +8187,42 @@
       <c r="C122" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D122" s="4"/>
+      <c r="D122" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E122" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H122" s="6"/>
       <c r="I122" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="J122" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J122" s="4"/>
       <c r="K122" s="4" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M122" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="N122" s="6"/>
-      <c r="O122" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="7" t="s">
+        <v>309</v>
+      </c>
       <c r="P122" s="8">
         <v>1.0</v>
       </c>
       <c r="Q122" s="8">
-        <v>1443.0</v>
+        <v>592.89</v>
       </c>
       <c r="R122" s="8">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="S122" s="6"/>
       <c r="T122" s="6"/>
@@ -8207,42 +8243,42 @@
       <c r="C123" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D123" s="4"/>
+      <c r="D123" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E123" s="4" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H123" s="6"/>
       <c r="I123" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J123" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J123" s="4"/>
       <c r="K123" s="4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="L123" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="M123" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N123" s="6"/>
-      <c r="O123" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="7" t="s">
+        <v>311</v>
+      </c>
       <c r="P123" s="8">
         <v>1.0</v>
       </c>
       <c r="Q123" s="8">
-        <v>442.0</v>
+        <v>638.88</v>
       </c>
       <c r="R123" s="8">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="S123" s="6"/>
       <c r="T123" s="6"/>
@@ -8255,7 +8291,7 @@
     </row>
     <row r="124">
       <c r="A124" s="3">
-        <v>45895.0</v>
+        <v>45898.0</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>1</v>
@@ -8265,29 +8301,29 @@
       </c>
       <c r="D124" s="4"/>
       <c r="E124" s="4" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H124" s="6"/>
       <c r="I124" s="4" t="s">
-        <v>295</v>
+        <v>34</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="M124" s="4" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N124" s="4"/>
       <c r="O124" s="7"/>
@@ -8295,7 +8331,7 @@
         <v>1.0</v>
       </c>
       <c r="Q124" s="8">
-        <v>295.0</v>
+        <v>294.0</v>
       </c>
       <c r="R124" s="8">
         <v>1.0</v>
@@ -8311,7 +8347,7 @@
     </row>
     <row r="125">
       <c r="A125" s="3">
-        <v>45890.0</v>
+        <v>45898.0</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>1</v>
@@ -8321,29 +8357,29 @@
       </c>
       <c r="D125" s="4"/>
       <c r="E125" s="4" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H125" s="6"/>
       <c r="I125" s="4" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>312</v>
+        <v>154</v>
       </c>
       <c r="L125" s="4" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M125" s="4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N125" s="4"/>
       <c r="O125" s="7"/>
@@ -8351,7 +8387,7 @@
         <v>1.0</v>
       </c>
       <c r="Q125" s="8">
-        <v>384.0</v>
+        <v>281.0</v>
       </c>
       <c r="R125" s="8">
         <v>1.0</v>
@@ -8367,7 +8403,7 @@
     </row>
     <row r="126">
       <c r="A126" s="3">
-        <v>45875.0</v>
+        <v>45898.0</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>1</v>
@@ -8377,29 +8413,29 @@
       </c>
       <c r="D126" s="4"/>
       <c r="E126" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>21</v>
       </c>
       <c r="H126" s="6"/>
       <c r="I126" s="4" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>170</v>
+        <v>316</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>97</v>
+        <v>317</v>
       </c>
       <c r="M126" s="4" t="s">
-        <v>171</v>
+        <v>318</v>
       </c>
       <c r="N126" s="4"/>
       <c r="O126" s="7"/>
@@ -8407,7 +8443,7 @@
         <v>1.0</v>
       </c>
       <c r="Q126" s="8">
-        <v>557.0</v>
+        <v>2765.0</v>
       </c>
       <c r="R126" s="8">
         <v>1.0</v>
@@ -8422,24 +8458,52 @@
       <c r="Z126" s="6"/>
     </row>
     <row r="127">
-      <c r="A127" s="3"/>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
+      <c r="A127" s="3">
+        <v>45898.0</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
+      <c r="E127" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H127" s="6"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
+      <c r="I127" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="N127" s="6"/>
-      <c r="O127" s="6"/>
-      <c r="P127" s="8"/>
-      <c r="Q127" s="8"/>
-      <c r="R127" s="8"/>
+      <c r="O127" s="7"/>
+      <c r="P127" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="Q127" s="8">
+        <v>1443.0</v>
+      </c>
+      <c r="R127" s="8">
+        <v>5.0</v>
+      </c>
       <c r="S127" s="6"/>
       <c r="T127" s="6"/>
       <c r="U127" s="6"/>
@@ -8450,24 +8514,52 @@
       <c r="Z127" s="6"/>
     </row>
     <row r="128">
-      <c r="A128" s="3"/>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
+      <c r="A128" s="3">
+        <v>45898.0</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
+      <c r="E128" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H128" s="6"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
+      <c r="I128" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L128" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M128" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="N128" s="6"/>
-      <c r="O128" s="6"/>
-      <c r="P128" s="8"/>
-      <c r="Q128" s="8"/>
-      <c r="R128" s="8"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="Q128" s="8">
+        <v>442.0</v>
+      </c>
+      <c r="R128" s="8">
+        <v>1.0</v>
+      </c>
       <c r="S128" s="6"/>
       <c r="T128" s="6"/>
       <c r="U128" s="6"/>
@@ -8478,24 +8570,52 @@
       <c r="Z128" s="6"/>
     </row>
     <row r="129">
-      <c r="A129" s="3"/>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
+      <c r="A129" s="3">
+        <v>45895.0</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
+      <c r="E129" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H129" s="6"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="6"/>
-      <c r="O129" s="6"/>
-      <c r="P129" s="8"/>
-      <c r="Q129" s="8"/>
-      <c r="R129" s="8"/>
+      <c r="I129" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M129" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N129" s="4"/>
+      <c r="O129" s="7"/>
+      <c r="P129" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="Q129" s="8">
+        <v>295.0</v>
+      </c>
+      <c r="R129" s="8">
+        <v>1.0</v>
+      </c>
       <c r="S129" s="6"/>
       <c r="T129" s="6"/>
       <c r="U129" s="6"/>
@@ -8506,24 +8626,52 @@
       <c r="Z129" s="6"/>
     </row>
     <row r="130">
-      <c r="A130" s="3"/>
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
+      <c r="A130" s="3">
+        <v>45890.0</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
+      <c r="E130" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H130" s="6"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="6"/>
-      <c r="O130" s="6"/>
-      <c r="P130" s="8"/>
-      <c r="Q130" s="8"/>
-      <c r="R130" s="8"/>
+      <c r="I130" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M130" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N130" s="4"/>
+      <c r="O130" s="7"/>
+      <c r="P130" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="Q130" s="8">
+        <v>384.0</v>
+      </c>
+      <c r="R130" s="8">
+        <v>1.0</v>
+      </c>
       <c r="S130" s="6"/>
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
@@ -8534,24 +8682,52 @@
       <c r="Z130" s="6"/>
     </row>
     <row r="131">
-      <c r="A131" s="3"/>
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
+      <c r="A131" s="3">
+        <v>45875.0</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
+      <c r="E131" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H131" s="6"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
+      <c r="I131" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="N131" s="6"/>
       <c r="O131" s="6"/>
-      <c r="P131" s="8"/>
-      <c r="Q131" s="8"/>
-      <c r="R131" s="8"/>
+      <c r="P131" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="Q131" s="8">
+        <v>557.0</v>
+      </c>
+      <c r="R131" s="8">
+        <v>1.0</v>
+      </c>
       <c r="S131" s="6"/>
       <c r="T131" s="6"/>
       <c r="U131" s="6"/>
